--- a/No-Clasificadas/PLANTILLA BOLETAS PENDIENTES.xlsx
+++ b/No-Clasificadas/PLANTILLA BOLETAS PENDIENTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.ramos\Desktop\DIN\Querys\No-Clasificadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881C0E7-4D04-49CA-8CED-C3EAB4AD258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653CB137-7F5C-4296-8CCC-7F83F237C48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3FF15839-7F1D-4263-AC42-108E273D8651}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>per_codigo</t>
   </si>
@@ -87,18 +87,6 @@
     <t xml:space="preserve"> MICHELLE BERENICE RAMIREZ GONZALEZ </t>
   </si>
   <si>
-    <t>46-1873-2022</t>
-  </si>
-  <si>
-    <t>ABEL ALBERTO  ARGUETA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>25-1449-2022</t>
-  </si>
-  <si>
-    <t>ABEL ANTONIO ESCOBAR MENDEZ</t>
-  </si>
-  <si>
     <t>20-0257-2020</t>
   </si>
   <si>
@@ -117,18 +105,6 @@
     <t xml:space="preserve"> VILMA ESPERANZA VASQUEZ PERAZA </t>
   </si>
   <si>
-    <t>20-0849-2021</t>
-  </si>
-  <si>
-    <t>ABEL ENRIQUE MEJIA ALAS</t>
-  </si>
-  <si>
-    <t>32-4550-2009</t>
-  </si>
-  <si>
-    <t>ABEL ERNESTO ARGUETA MARTINEZ</t>
-  </si>
-  <si>
     <t>exec dbo.col_pagos_por_alumno_pivot2 2, 130</t>
   </si>
   <si>
@@ -138,30 +114,6 @@
     <t xml:space="preserve">AARON ENRIQUE  LOPEZ ORELLANA </t>
   </si>
   <si>
-    <t>13-0878-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABDIEL ALEJANDRO  SALGADO GOMEZ </t>
-  </si>
-  <si>
-    <t>22-1577-2023</t>
-  </si>
-  <si>
-    <t>ABDIEL ALEXANDER PEREZ FLORES</t>
-  </si>
-  <si>
-    <t>32-2069-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABEL ALEJANDRO  DURAN GONZALEZ </t>
-  </si>
-  <si>
-    <t>29-1636-2023</t>
-  </si>
-  <si>
-    <t>ABEL ERNESTO  PORTILLO SANCHEZ</t>
-  </si>
-  <si>
     <t>10-4773-2011</t>
   </si>
   <si>
@@ -207,27 +159,12 @@
     <t xml:space="preserve"> YESSICA MARGARITA  ARGUETA DE AYALA </t>
   </si>
   <si>
-    <t>22-1900-2019</t>
-  </si>
-  <si>
     <t>AARON ALEXANDER DIAZ HERNANDEZ</t>
   </si>
   <si>
-    <t>03-2741-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABDIAS ELISEO  MONICO LIZAMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JASMIN ELIZABETH ZAVALETA DE MUÑOZ</t>
-  </si>
-  <si>
     <t>54-0999-2021</t>
   </si>
   <si>
-    <t>03-4206-2019</t>
-  </si>
-  <si>
     <t>31-1085-2019</t>
   </si>
   <si>
@@ -240,16 +177,49 @@
     <t xml:space="preserve"> MIRIAM MAYANIN  BAIRES DE CHAVEZ </t>
   </si>
   <si>
-    <t>29-4468-2023</t>
-  </si>
-  <si>
-    <t>AARON LOMBARDO PEREIRA ESCOBAR</t>
-  </si>
-  <si>
-    <t>58-4329-2023</t>
-  </si>
-  <si>
-    <t>ABEL EDGARDO LOZANO VELASQUEZ</t>
+    <t>03-2521-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BRYAN CHRISTOPHER MARTINEZ GUEVARA</t>
+  </si>
+  <si>
+    <t>13-1594-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EVELYN NINETH  MORÁN IGLESIAS</t>
+  </si>
+  <si>
+    <t>31-1294-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IRIS ELIZABETH CUATRO AYALA </t>
+  </si>
+  <si>
+    <t>46-1897-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSÉ ENRIQUE GARCÍA VALLADARES</t>
+  </si>
+  <si>
+    <t>05-0670-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARÍA ALEJANDRA ORTIZ PINEDA</t>
+  </si>
+  <si>
+    <t>53-2721-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANDRA ELIZABETH DURAN CARLOS</t>
+  </si>
+  <si>
+    <t>46-1900-2019</t>
+  </si>
+  <si>
+    <t>25-1484-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARÓN CALEB  MEJÍA CARRANZA </t>
   </si>
 </sst>
 </file>
@@ -311,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,17 +577,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B13D8B3-FF1F-452E-9E22-F47F78D5EE40}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L33"/>
+      <selection activeCell="L4" sqref="L4:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -655,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="L2">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -695,10 +665,10 @@
         <v>147994</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -716,18 +686,18 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f>D4+E4+F4+G4+H4+I4+J4+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("select ",$L$1," from col_art_archivo_tal_mora where per_codigo = ",A4," and ciclo = ",$L$2," and fel_codigo_barra &gt;= ",K4, " UNION ALL")</f>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 147994 and ciclo = 131 and fel_codigo_barra &gt;= 8 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 147994 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -735,10 +705,10 @@
         <v>229406</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -756,29 +726,29 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K33" si="0">D5+E5+F5+G5+H5+I5+J5+1</f>
-        <v>7</v>
+        <f t="shared" ref="K5:K28" si="0">D5+E5+F5+G5+H5+I5+J5+1</f>
+        <v>6</v>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE("select ",$L$1," from col_art_archivo_tal_mora where per_codigo = ",A5," and ciclo = ",$L$2," and fel_codigo_barra &gt;= ",K5, " UNION ALL")</f>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229406 and ciclo = 131 and fel_codigo_barra &gt;= 7 UNION ALL</v>
+        <f t="shared" ref="L5:L28" si="1">CONCATENATE("select ",$L$1," from col_art_archivo_tal_mora where per_codigo = ",A5," and ciclo = ",$L$2," and fel_codigo_barra &gt;= ",K5, " UNION ALL")</f>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229406 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>222802</v>
+        <v>225338</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -806,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ref="L6:L33" si="1">CONCATENATE("select ",$L$1," from col_art_archivo_tal_mora where per_codigo = ",A6," and ciclo = ",$L$2," and fel_codigo_barra &gt;= ",K6, " UNION ALL")</f>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 222802 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <f t="shared" si="1"/>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 225338 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>238143</v>
+        <v>251106</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -847,18 +817,18 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 238143 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 251106 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>240787</v>
+        <v>222802</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -887,18 +857,18 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 240787 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 222802 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>230592</v>
+        <v>238143</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -927,18 +897,18 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 230592 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 238143 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>229360</v>
+        <v>240787</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -967,18 +937,18 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229360 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 240787 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>219293</v>
+        <v>230592</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1007,18 +977,18 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 219293 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 230592 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>215648</v>
+        <v>250801</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1030,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1043,22 +1013,22 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 215648 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 250801 and ciclo = 134 and fel_codigo_barra &gt;= 4 UNION ALL</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>236679</v>
+        <v>229360</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1087,18 +1057,18 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 236679 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229360 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>215810</v>
+        <v>215648</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1127,18 +1097,18 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 215810 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 215648 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>229484</v>
+        <v>251411</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1156,29 +1126,29 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229484 and ciclo = 131 and fel_codigo_barra &gt;= 8 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 251411 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>240945</v>
+        <v>236679</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1190,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1203,22 +1173,22 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 240945 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 236679 and ciclo = 134 and fel_codigo_barra &gt;= 4 UNION ALL</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>234172</v>
+        <v>215810</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1247,18 +1217,18 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 234172 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 215810 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>245946</v>
+        <v>229484</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1276,29 +1246,29 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 245946 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229484 and ciclo = 134 and fel_codigo_barra &gt;= 8 UNION ALL</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>238723</v>
+        <v>250157</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1316,29 +1286,29 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 238723 and ciclo = 131 and fel_codigo_barra &gt;= 7 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 250157 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>212510</v>
+        <v>240945</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1356,29 +1326,29 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 212510 and ciclo = 131 and fel_codigo_barra &gt;= 8 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 240945 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>216558</v>
+        <v>234172</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1396,29 +1366,29 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 216558 and ciclo = 131 and fel_codigo_barra &gt;= 8 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 234172 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>210287</v>
+        <v>245946</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1447,18 +1417,18 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 210287 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 245946 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>247939</v>
+        <v>231142</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1487,18 +1457,18 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 247939 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 231142 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>237909</v>
+        <v>238723</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1527,18 +1497,18 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 237909 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 238723 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>243523</v>
+        <v>212510</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1556,29 +1526,29 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 243523 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 212510 and ciclo = 134 and fel_codigo_barra &gt;= 8 UNION ALL</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>244225</v>
+        <v>216558</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1607,18 +1577,18 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 244225 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 216558 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>237041</v>
+        <v>250995</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1647,18 +1617,18 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 237041 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 250995 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>244724</v>
+        <v>210287</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1687,207 +1657,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 244724 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>236615</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 236615 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>247773</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 247773 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>229255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 229255 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>244284</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 244284 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>133607</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="1"/>
-        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 133607 and ciclo = 131 and fel_codigo_barra &gt;= 6 UNION ALL</v>
+        <v>select mciclo 'Ciclo', per_carnet 'Carnet', per_nombres_apellidos 'Estudiante', pla_alias_carrera 'Carrera', NPE, fel_fecha_mora 'Fecha Mora', concat(fel_codigo_barra-1, '° ', 'cuota') 'Cuota', tmo_valor 'Total Pagar', tmo_valor_mora 'Total Pagar Mora' from col_art_archivo_tal_mora where per_codigo = 210287 and ciclo = 134 and fel_codigo_barra &gt;= 6 UNION ALL</v>
       </c>
     </row>
   </sheetData>
